--- a/data/dohee/2006-2021_남성육아휴직수.xlsx
+++ b/data/dohee/2006-2021_남성육아휴직수.xlsx
@@ -579,7 +579,7 @@
         <v>27421</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>29041</v>
       </c>
     </row>
     <row r="3" spans="1:17">
